--- a/doc/50_単体テスト(UT)/02_エビデンス/CSU_USER02_会員登録画面_エビデンス/A-画面レイアウト.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/CSU_USER02_会員登録画面_エビデンス/A-画面レイアウト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\colpro-workspace\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RKK_USER02_会員登録画面_エビデンス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/596e7cda6e0eea7d/桌面/EB/JAVA/certificate-online/doc/50_単体テスト(UT)/02_エビデンス/CSU_USER02_会員登録画面_エビデンス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0623A63-0741-4BBD-8FDC-45047DAB1060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D0623A63-0741-4BBD-8FDC-45047DAB1060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD79376D-6F6F-4F0C-91C1-F7D735D82858}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT-USER02-A-001" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -88,20 +88,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>110836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>625094</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>56843</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>331124</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>168675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64452A1F-A306-A847-2B11-D90879F3269C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679917B8-A76C-E894-04AE-7465BC956325}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -109,15 +109,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="14030"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="14590476" cy="8064770"/>
+          <a:off x="0" y="110836"/>
+          <a:ext cx="18009524" cy="8342857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -398,7 +399,7 @@
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
